--- a/AAII_Financials/Quarterly/HOME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOME_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>HOME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43855</v>
+      </c>
+      <c r="E7" s="2">
         <v>43764</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43673</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43491</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43309</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43218</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43127</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42672</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>397700</v>
+      </c>
+      <c r="E8" s="3">
         <v>318700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>342300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>306300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>354100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>267200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>288500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>256200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>293700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>213000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>232100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>211800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>234500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>170700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>188400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>283600</v>
+      </c>
+      <c r="E9" s="3">
         <v>233300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>241900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>218200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>236800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>181200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>191100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>170900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>194300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>150300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>159000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>140000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>158800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>119300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>126300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E10" s="3">
         <v>85400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>88100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>117300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>86000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>97400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>85300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>99400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>71800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,37 +1006,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>247300</v>
+      </c>
+      <c r="E14" s="3">
         <v>6700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-16500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>42700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2700</v>
       </c>
       <c r="M14" s="3">
         <v>2700</v>
@@ -1028,16 +1048,19 @@
         <v>2700</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2700</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,13 +1068,13 @@
         <v>2000</v>
       </c>
       <c r="E15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="3">
         <v>1900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1600</v>
       </c>
       <c r="H15" s="3">
         <v>1600</v>
@@ -1069,22 +1092,25 @@
         <v>1600</v>
       </c>
       <c r="M15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N15" s="3">
         <v>1500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>606900</v>
+      </c>
+      <c r="E17" s="3">
         <v>316700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>320500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>280400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>309500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>248100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>232000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>257200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>203600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>211800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>190500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>205200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>168900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>169500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-209200</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,196 +1293,211 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-191100</v>
+      </c>
+      <c r="E21" s="3">
         <v>19600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>39100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>42400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>60300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>35700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>39800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>8500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5800</v>
       </c>
       <c r="K22" s="3">
         <v>5800</v>
       </c>
       <c r="L22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-216500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-224100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-224100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,11 +1710,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1661,11 +1722,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-16700</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-224100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-224100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43855</v>
+      </c>
+      <c r="E38" s="2">
         <v>43764</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43673</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43582</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43491</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43309</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43218</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43127</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42672</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,149 +2288,161 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>417800</v>
+      </c>
+      <c r="E44" s="3">
         <v>431500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>436700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>408000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>382000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>349400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>331500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>283100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>269800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>277800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>272800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>252100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>243800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>248100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E45" s="3">
         <v>24900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>12200</v>
       </c>
       <c r="N45" s="3">
         <v>12200</v>
       </c>
       <c r="O45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="P45" s="3">
         <v>8000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>448200</v>
+      </c>
+      <c r="E46" s="3">
         <v>470500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>479400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>441700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>414500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>394700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>366300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>315100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>297600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>294800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>274800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>258900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>263600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>230700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,60 +2488,66 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1891100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1865300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1814300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1719200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>682700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>613400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>568800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>528700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>466300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>446300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>439300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>375500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>340400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>314100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>571200</v>
+        <v>321200</v>
       </c>
       <c r="E49" s="3">
         <v>571200</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>571200</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>571200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E52" s="3">
         <v>15000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>26100</v>
       </c>
       <c r="F52" s="3">
         <v>26100</v>
       </c>
       <c r="G52" s="3">
+        <v>26100</v>
+      </c>
+      <c r="H52" s="3">
         <v>57800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>44400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>51200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>42600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2679500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2921900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2891000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2758200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1726200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1635200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1562000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1459400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1374200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1366200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1349000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1264100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1213400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1185600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1147700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E57" s="3">
         <v>108500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>136300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>125100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>115800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>98300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>91500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>70800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>83900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>58400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>66500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>240500</v>
+      </c>
+      <c r="E58" s="3">
         <v>303000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>280400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>231900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>225100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>244800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>199000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>187100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>165500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>189500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>172300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>130500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>105300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>90700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>106500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E59" s="3">
         <v>159900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>184000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>178500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>128900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>119300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>122900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>104900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>98600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>102800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>96100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>537700</v>
+      </c>
+      <c r="E60" s="3">
         <v>571300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>535600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>469800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>462400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>413400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>368100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>343700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>351800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>359100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>288000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>252500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>253300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>243700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>334300</v>
+      </c>
+      <c r="E61" s="3">
         <v>345000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>345600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>346100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>371500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>321800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>317200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>317500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>309600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>317800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>317900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>319300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>319500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>310500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1174700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1101400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1046300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>173900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>171300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>167300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>153100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>130100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>129200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>110600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>108700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>106500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>106800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2070900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2091100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2047600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1928000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1015100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>955500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>898000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>838800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>783400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>798700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>787500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>715900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>678500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>670600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>762600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E72" s="3">
         <v>175000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>189600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>179300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>66800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>37200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>26100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>36100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>608600</v>
+      </c>
+      <c r="E76" s="3">
         <v>830800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>843400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>830200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>711100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>679800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>664000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>620600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>590900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>567500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>561500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>548200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>534900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>515000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43855</v>
+      </c>
+      <c r="E80" s="2">
         <v>43764</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43673</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43582</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43491</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43309</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43218</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43127</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42672</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-224100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E83" s="3">
         <v>17600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>55600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>69600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-60900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-80600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-87400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-109700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-81800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-78600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-76200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-81800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-60900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-87500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-53900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>31600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="E100" s="3">
         <v>21600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>48500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>29900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>48000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>23600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>HOME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E7" s="2">
         <v>43855</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43764</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43673</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43491</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43309</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43218</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43127</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E8" s="3">
         <v>397700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>318700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>342300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>306300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>354100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>267200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>288500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>256200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>293700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>213000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>232100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>211800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>234500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>170700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>188400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>173500</v>
+      </c>
+      <c r="E9" s="3">
         <v>283600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>233300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>241900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>218200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>236800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>181200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>191100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>170900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>194300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>150300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>159000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>140000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>158800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>119300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>126300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E10" s="3">
         <v>114100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>85400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>88100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>117300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>86000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>97400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>99400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>71800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,40 +1025,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>319700</v>
+      </c>
+      <c r="E14" s="3">
         <v>247300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-16500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>42700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
-      </c>
-      <c r="M14" s="3">
-        <v>2700</v>
       </c>
       <c r="N14" s="3">
         <v>2700</v>
@@ -1051,33 +1070,36 @@
         <v>2700</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2700</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="E15" s="3">
         <v>2000</v>
       </c>
       <c r="F15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="3">
         <v>1900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1600</v>
       </c>
       <c r="I15" s="3">
         <v>1600</v>
@@ -1095,22 +1117,25 @@
         <v>1600</v>
       </c>
       <c r="N15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O15" s="3">
         <v>1500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>561900</v>
+      </c>
+      <c r="E17" s="3">
         <v>606900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>316700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>320500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>280400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>309500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>248100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>232000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>257200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>203600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>211800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>190500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>205200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>168900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>169500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-372100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-209200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>44600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,208 +1329,223 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-353900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-191100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>39100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>42400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>60300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>35700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>50300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>39800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5800</v>
       </c>
       <c r="L22" s="3">
         <v>5800</v>
       </c>
       <c r="M22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N22" s="3">
         <v>5600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-379000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-216500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E24" s="3">
         <v>7600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-358900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-224100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>29100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-358900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-224100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>29100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1713,11 +1773,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>500</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1725,11 +1785,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-16700</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-358900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-224100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-358900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-224100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>29600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E38" s="2">
         <v>43855</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43764</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43673</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43491</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43309</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43218</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43127</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E41" s="3">
         <v>12100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,158 +2383,170 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E44" s="3">
         <v>417800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>431500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>436700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>408000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>382000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>349400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>331500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>283100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>269800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>277800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>272800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>252100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>243800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>248100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E45" s="3">
         <v>18300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>12200</v>
       </c>
       <c r="O45" s="3">
         <v>12200</v>
       </c>
       <c r="P45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>8000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>511700</v>
+      </c>
+      <c r="E46" s="3">
         <v>448200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>470500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>479400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>441700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>414500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>394700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>366300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>315100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>297600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>294800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>274800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>258900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>263600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>230700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,66 +2595,72 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1953000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1891100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1865300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1814300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1719200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>682700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>613400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>568800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>528700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>466300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>446300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>439300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>375500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>340400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>314100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
         <v>321200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>571200</v>
       </c>
       <c r="F49" s="3">
         <v>571200</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>571200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>571200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>19100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>26100</v>
       </c>
       <c r="G52" s="3">
         <v>26100</v>
       </c>
       <c r="H52" s="3">
+        <v>26100</v>
+      </c>
+      <c r="I52" s="3">
         <v>57800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>44400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>51200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>42600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>43000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2468400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2679500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2921900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2891000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2758200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1726200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1635200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1562000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1459400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1374200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1366200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1349000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1264100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1213400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1185600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1147700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E57" s="3">
         <v>119200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>108500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>136300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>125100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>115800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>98300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>91500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>76200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>79600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>70800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>83900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>63700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>66500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>347100</v>
+      </c>
+      <c r="E58" s="3">
         <v>240500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>303000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>280400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>231900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>225100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>244800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>199000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>187100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>165500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>189500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>172300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>130500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>105300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>90700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>106500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>160100</v>
+      </c>
+      <c r="E59" s="3">
         <v>178000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>159900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>184000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>178500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>128900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>119300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>122900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>104900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>98600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>91500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>102800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>93800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>88800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>96100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>621700</v>
+      </c>
+      <c r="E60" s="3">
         <v>537700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>571300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>535600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>469800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>462400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>413400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>368100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>343700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>351800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>359100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>288000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>252500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>253300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>243700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>334200</v>
+      </c>
+      <c r="E61" s="3">
         <v>334300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>345000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>345600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>346100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>371500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>321800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>317200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>317500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>309600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>317800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>317900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>319300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>319500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>310500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1260800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1199000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1174700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1101400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1046300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>173900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>171300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>167300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>153100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>130100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>129200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>110600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>108700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>106500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>106800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2216600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2070900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2091100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2047600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1928000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1015100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>955500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>898000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>838800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>783400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>798700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>787500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>715900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>678500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>670600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>762600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>175000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>189600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>179300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>66800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>37200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>26100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>251700</v>
+      </c>
+      <c r="E76" s="3">
         <v>608600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>830800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>843400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>830200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>711100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>679800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>664000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>620600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>590900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>567500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>561500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>548200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>534900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>515000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E80" s="2">
         <v>43855</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43764</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43673</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43491</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43309</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43218</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43127</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-358900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-224100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>29600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E83" s="3">
         <v>18000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E89" s="3">
         <v>97800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>55600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>69600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-69600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-80600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-87400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-109700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-81800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-78600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-81800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-60900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-87500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-53900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>31600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-73600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>48500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>29900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>48000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>23600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>HOME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44037</v>
+      </c>
+      <c r="E7" s="2">
         <v>43946</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43855</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43764</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43673</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43491</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43400</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43309</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43218</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43127</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>515200</v>
+      </c>
+      <c r="E8" s="3">
         <v>189800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>397700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>318700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>342300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>306300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>354100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>267200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>288500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>256200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>293700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>213000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>232100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>211800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>234500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>170700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>188400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>319100</v>
+      </c>
+      <c r="E9" s="3">
         <v>173500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>283600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>233300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>241900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>218200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>236800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>181200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>191100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>170900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>194300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>150300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>159000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>140000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>158800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>119300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>126300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E10" s="3">
         <v>16300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>114100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>85400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>88100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>117300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>86000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>85300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>71800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,43 +1045,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>319700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>247300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-16500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>42700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2700</v>
       </c>
       <c r="O14" s="3">
         <v>2700</v>
@@ -1073,16 +1093,19 @@
         <v>2700</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,19 +1113,19 @@
         <v>2200</v>
       </c>
       <c r="E15" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F15" s="3">
         <v>2000</v>
       </c>
       <c r="G15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1600</v>
       </c>
       <c r="J15" s="3">
         <v>1600</v>
@@ -1120,22 +1143,25 @@
         <v>1600</v>
       </c>
       <c r="O15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P15" s="3">
         <v>1500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E17" s="3">
         <v>561900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>606900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>316700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>320500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>280400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>309500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>248100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>232000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>257200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>203600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>211800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>190500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>205200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>168900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>169500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-372100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-209200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>44600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,220 +1366,235 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-353900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-191100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>39100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>42400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>50300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>39800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>7000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5800</v>
       </c>
       <c r="M22" s="3">
         <v>5800</v>
       </c>
       <c r="N22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O22" s="3">
         <v>5600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-379000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-216500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-20100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-358900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-224100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>29100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-358900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-224100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>29100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,11 +1837,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>500</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1788,11 +1849,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-16700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-358900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-224100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-358900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-224100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44037</v>
+      </c>
+      <c r="E38" s="2">
         <v>43946</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43855</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43764</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43673</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43491</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43400</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43309</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43218</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43127</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E41" s="3">
         <v>43600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,167 +2479,179 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>305500</v>
+      </c>
+      <c r="E44" s="3">
         <v>407000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>417800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>431500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>436700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>408000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>382000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>349400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>331500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>283100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>269800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>277800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>272800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>252100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>243800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>248100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E45" s="3">
         <v>61100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>12200</v>
       </c>
       <c r="P45" s="3">
         <v>12200</v>
       </c>
       <c r="Q45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="R45" s="3">
         <v>8000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>361400</v>
+      </c>
+      <c r="E46" s="3">
         <v>511700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>448200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>470500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>479400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>441700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>414500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>394700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>366300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>315100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>297600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>294800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>274800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>258900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>263600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>230700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1964700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1953000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1891100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1865300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1814300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1719200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>682700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>613400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>568800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>528700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>466300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>446300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>439300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>375500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>340400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>314100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,10 +2771,10 @@
         <v>1500</v>
       </c>
       <c r="E49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F49" s="3">
         <v>321200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>571200</v>
       </c>
       <c r="G49" s="3">
         <v>571200</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>571200</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>571200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>26100</v>
       </c>
       <c r="H52" s="3">
         <v>26100</v>
       </c>
       <c r="I52" s="3">
+        <v>26100</v>
+      </c>
+      <c r="J52" s="3">
         <v>57800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>44400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>51200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>42600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2330800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2468400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2679500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2921900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2891000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2758200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1726200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1635200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1562000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1459400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1374200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1366200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1349000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1264100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1213400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1185600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1147700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E57" s="3">
         <v>114500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>119200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>108500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>136300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>125100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>115800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>98300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>91500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>76200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>79600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>70800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>83900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>63700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>58400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>66500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E58" s="3">
         <v>347100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>240500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>303000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>280400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>231900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>225100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>244800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>199000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>187100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>165500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>189500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>172300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>130500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>105300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>90700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>106500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E59" s="3">
         <v>160100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>178000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>159900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>184000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>178500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>128900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>119300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>122900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>104900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>98600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>91500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>102800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>93800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>88800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>96100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E60" s="3">
         <v>621700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>537700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>571300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>535600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>469800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>462400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>413400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>368100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>343700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>351800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>359100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>288000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>252500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>253300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>243700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>359500</v>
+      </c>
+      <c r="E61" s="3">
         <v>334200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>334300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>345000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>345600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>346100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>371500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>321800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>317200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>317500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>309600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>317800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>317900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>319300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>319500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>310500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1328900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1260800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1199000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1174700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1101400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1046300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>173900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>171300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>167300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>153100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>130100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>129200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>110600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>108700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>106500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>106800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1987300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2216600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2070900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2091100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2047600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1928000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1015100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>955500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>898000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>838800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>783400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>798700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>787500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>715900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>678500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>670600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>762600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-318600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-408000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-49100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>175000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>189600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>179300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>66800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>37200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>36100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>343400</v>
+      </c>
+      <c r="E76" s="3">
         <v>251700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>608600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>830800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>843400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>830200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>711100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>679800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>664000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>620600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>590900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>567500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>561500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>548200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>534900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>515000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44037</v>
+      </c>
+      <c r="E80" s="2">
         <v>43946</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43855</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43764</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43673</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43491</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43400</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43309</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43218</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43127</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-358900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-224100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E83" s="3">
         <v>18100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-55200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>97800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>55600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>69600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-60900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-80600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-87400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-109700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-81800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-78600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-81800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-60900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-87500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-53900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>31600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-314100</v>
+      </c>
+      <c r="E100" s="3">
         <v>106000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-73600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>48500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>29900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>48000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>20000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>39500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>23600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>14000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E102" s="3">
         <v>31600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>HOME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44128</v>
+      </c>
+      <c r="F7" s="2">
         <v>44037</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43946</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43855</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43764</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43673</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43582</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43491</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43400</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43309</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43218</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43127</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>562000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>470000</v>
+      </c>
+      <c r="F8" s="3">
         <v>515200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>189800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>397700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>318700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>342300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>306300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>354100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>267200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>288500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>256200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>293700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>213000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>232100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>211800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>234500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>170700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>188400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>343600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>299300</v>
+      </c>
+      <c r="F9" s="3">
         <v>319100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>173500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>283600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>233300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>241900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>218200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>236800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>181200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>191100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>170900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>194300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>150300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>159000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>140000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>158800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>119300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>126300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>218400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>170700</v>
+      </c>
+      <c r="F10" s="3">
         <v>196100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>16300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>114100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>85400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>88100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>117300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>86000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>97400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>85300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>99400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>62700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>73100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>71800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>75700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>51400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1082,76 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>319700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>247300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-16500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>42700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>5500</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2700</v>
       </c>
       <c r="Q14" s="3">
         <v>2700</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,22 +1162,22 @@
         <v>2200</v>
       </c>
       <c r="F15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H15" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1600</v>
       </c>
       <c r="L15" s="3">
         <v>1600</v>
@@ -1146,22 +1192,28 @@
         <v>1600</v>
       </c>
       <c r="P15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R15" s="3">
         <v>1500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>1400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>1300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>1100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>461700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>401800</v>
+      </c>
+      <c r="F17" s="3">
         <v>390000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>561900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>606900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>316700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>320500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>280400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>309500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>248100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>232000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>257200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>203600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>211800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>190500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>205200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>168900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>169500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>68200</v>
+      </c>
+      <c r="F18" s="3">
         <v>125200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-372100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-209200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>21800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>25900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>44600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>19100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-11800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>24200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>36500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>9400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>20300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>21300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>29300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,232 +1437,262 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>85700</v>
+      </c>
+      <c r="F21" s="3">
         <v>143200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-353900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-191100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>19600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>39100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>42400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>60300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>33900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>35700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>50300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>21600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>32100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>32200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>39800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>11200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>6700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>5200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F23" s="3">
         <v>119100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-379000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-216500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>13600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>37000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>12100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-18500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>18400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>30700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>14800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>16400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>24000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F24" s="3">
         <v>29700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-20100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>7600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>8100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>8700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F26" s="3">
         <v>89400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-358900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-224100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>10400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>13900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>29100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>18400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>26600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>9500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>10000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>15300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F27" s="3">
         <v>89400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-358900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-224100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>10400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>13900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>29100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>18400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>26600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>10000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>15300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,26 +1962,26 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>500</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>500</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>-16700</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>-16700</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,64 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F33" s="3">
         <v>89400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-358900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-224100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>13900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>29600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>11100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>18400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>9900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>9500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>10000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>15300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F35" s="3">
         <v>89400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-358900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-224100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>13900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>29600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>11100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>18400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>9900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>9500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>10000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>15300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44128</v>
+      </c>
+      <c r="F38" s="2">
         <v>44037</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43946</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43855</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43764</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43673</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43582</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43491</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43400</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43309</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43218</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43127</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F41" s="3">
         <v>32400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>43600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>14100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,31 +2606,37 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>22200</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2482,176 +2668,200 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>347400</v>
+      </c>
+      <c r="F44" s="3">
         <v>305500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>407000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>417800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>431500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>436700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>408000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>382000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>349400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>331500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>283100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>269800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>277800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>272800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>252100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>243800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>248100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F45" s="3">
         <v>23500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>61100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>24900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>29600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>18300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>21600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>32400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>24400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>18500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>22600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>9600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>12200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>12200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>8000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>7900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>537600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>419500</v>
+      </c>
+      <c r="F46" s="3">
         <v>361400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>511700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>448200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>470500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>479400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>441700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>414500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>394700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>366300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>315100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>297600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>294800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>274800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>258900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>263600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>230700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2916,76 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1978300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1941200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1964700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1953000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1891100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1865300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1814300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1719200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>682700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>613400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>568800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>528700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>466300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>446300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>439300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>375500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>340400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>314100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>324100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,13 +2996,13 @@
         <v>1500</v>
       </c>
       <c r="F49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H49" s="3">
         <v>321200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>571200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>571200</v>
       </c>
       <c r="I49" s="3">
         <v>571200</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>571200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>571200</v>
+      </c>
+      <c r="V49" s="3">
+        <v>571200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>19100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>15000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>26100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>26100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>57800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>55900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>55700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>44400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>35900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>51200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>43600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>42600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>43000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>36700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2524900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2369900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2330800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2468400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2679500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2921900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2891000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2758200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1726200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1635200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1562000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1459400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1374200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1366200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1349000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1264100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1213400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1185600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1147700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3402,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>102600</v>
+      </c>
+      <c r="F57" s="3">
         <v>75600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>114500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>119200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>108500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>136300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>125100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>115800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>98300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>91500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>76200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>79600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>70800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>83900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>63700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>58400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>66500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>46600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F58" s="3">
         <v>8400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>347100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>240500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>303000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>280400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>231900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>225100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>244800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>199000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>187100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>165500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>189500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>172300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>130500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>105300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>90700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>106500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>263500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>249500</v>
+      </c>
+      <c r="F59" s="3">
         <v>214900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>160100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>178000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>159900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>184000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>178500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>128900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>119300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>122900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>104900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>98600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>91500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>102800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>93800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>88800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>96100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>90700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>398400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>356700</v>
+      </c>
+      <c r="F60" s="3">
         <v>299000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>621700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>537700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>571300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>535600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>469800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>462400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>413400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>368100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>343700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>351800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>359100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>288000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>252500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>253300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>243700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>314300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>314500</v>
+      </c>
+      <c r="F61" s="3">
         <v>359500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>334200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>334300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>345000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>345600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>346100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>371500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>321800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>317200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>317500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>309600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>317800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>317900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>319300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>319500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>310500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1328100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1299100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1328900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1260800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1199000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1174700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1101400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1046300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>173900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>171300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>167300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>153100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>130100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>129200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>110600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>108700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>106500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>106800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2040800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1970200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1987300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2216600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2070900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2091100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2047600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1928000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1015100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>955500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>898000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>838800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>783400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>798700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>787500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>715900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>678500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>670600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>762600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-198800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-271500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-318600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-408000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-49100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>175000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>189600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>179300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>66800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>37200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>26100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>36100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>17800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>7900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-29300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>484200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>399600</v>
+      </c>
+      <c r="F76" s="3">
         <v>343400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>251700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>608600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>830800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>843400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>830200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>711100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>679800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>664000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>620600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>590900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>567500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>561500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>548200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>534900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>515000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44128</v>
+      </c>
+      <c r="F80" s="2">
         <v>44037</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43946</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43855</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43764</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43673</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43582</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43491</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43400</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43309</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43218</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43127</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42581</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F81" s="3">
         <v>89400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-358900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-224100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>13900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>29600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>11100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>18400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>9900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>9500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>10000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>15300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4819,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F83" s="3">
         <v>17900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>18100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>18000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>17600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>17300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>16500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>15700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>14900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>14500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>13800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>12300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>11900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>10800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>10500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>9400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>74900</v>
+      </c>
+      <c r="F89" s="3">
         <v>289700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-55200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>97800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>55600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>15600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>69600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>18100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>20900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>16500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-15500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-19300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-19200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-35700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-69600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-60900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-80600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-87400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-109700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-81800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-78600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-56600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-76200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-81800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-31300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-30200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F94" s="3">
         <v>13200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-19200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-26200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-19600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-60900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-16800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-87500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-53900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-38800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-56600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-14100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-40900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-31100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>31600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-314100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>106000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-73600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>21600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>48500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>20000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>29900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>48000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>20000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>29800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-14600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>16800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>39500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>23600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>14000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-16600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>31600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>7500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>3600</v>
       </c>
       <c r="R102" s="3">
         <v>-600</v>
       </c>
       <c r="S102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
     </row>
